--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1058867.106618381</v>
+        <v>1079936.41141172</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7133250.219595442</v>
+        <v>7242425.196637934</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>103.9996664247911</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>16.34064557233173</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>104.9316083298984</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +874,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>78.97711804815684</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>283.7904600494985</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>254.738055005047</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1057,10 +1057,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>75.14309508721981</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.12721030993534</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>44.69616728427791</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.6173062872338</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1300,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>95.29602472536796</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>101.0430753545945</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3456594571953</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>219.2875345484105</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>212.1880754063472</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1771,16 +1771,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>26.41040541581642</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002664</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>222.8243919073998</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>97.20690742198948</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>52.5117099198479</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2245,16 +2245,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>15.57230972412723</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>187.8613000121145</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.3527875172873</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.55329631630678</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>111.6992875207549</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3013,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>98.34385133095624</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3272,7 +3272,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3326,10 +3326,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864849</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.4537730419684</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3478,10 +3478,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800588</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932879</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629689</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314877</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561534</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>16.05512456153167</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>65.07405371603365</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>250.2420530934746</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3958,13 +3958,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.5141406214755</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>18.22772027659647</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,16 +4144,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225734</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>283.0576891156057</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.8413732171584</v>
+        <v>1234.215327408404</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>805.6336531456727</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4343,7 +4343,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1680.677727482102</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1679.86267693354</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>1664.760617553255</v>
       </c>
       <c r="Y2" t="n">
-        <v>247.1005396616621</v>
+        <v>1660.514897893312</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.4973157021125</v>
+        <v>461.0433221421854</v>
       </c>
       <c r="C4" t="n">
-        <v>368.4973157021125</v>
+        <v>288.4816106254103</v>
       </c>
       <c r="D4" t="n">
-        <v>368.4973157021125</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>368.4973157021125</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4495,16 +4495,16 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>452.1535503695694</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>933.8547474946647</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>933.8547474946647</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>688.4629928280772</v>
       </c>
       <c r="Y4" t="n">
-        <v>368.4973157021125</v>
+        <v>461.0433221421854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>829.2100454836315</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>795.1079767074589</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2042.329799663907</v>
       </c>
       <c r="V5" t="n">
-        <v>1250.914606198081</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
-        <v>993.603439526316</v>
+        <v>1274.857395008767</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>855.7149315880778</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>851.4692119281352</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>793.8545506536184</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.160498707152</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.160498707152</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1216.160498707152</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1216.160498707152</v>
+        <v>1213.092840058497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>985.6731693726056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>949.4537989923044</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>530.3113355716151</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.1524403319851</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>936.2947751752459</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>763.7330636584709</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>597.8550708599936</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1600.924819246712</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1355.533064580125</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1128.113393894233</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984729</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168152</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342597</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.481739500892</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>600.6143099100996</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2164785333636</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590672</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169983</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469637</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1051.621568765314</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>879.0598572485394</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>713.1818644500621</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>543.4238607007994</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>366.7168066625557</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>201.1255316883833</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713471</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170193</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X13" t="n">
-        <v>1470.859858170193</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1243.440187484302</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984729</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168152</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342597</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500892</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099100996</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179639</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590673</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169984</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469637</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.0533615061024</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C16" t="n">
-        <v>771.4916499893275</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D16" t="n">
-        <v>605.6136571908502</v>
+        <v>451.8971520785151</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>105.4320942910086</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289286</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.098318867741</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.665318120847</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.709809991277</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.683405577569</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.291650910981</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.87198022509</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612944</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1329.96506270034</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.0250289532</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.0250289532</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523506</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315497</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252389</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125428</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442445</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376271</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.533924035464</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.391460614775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.105336914428</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.6593645443551</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C19" t="n">
-        <v>786.6593645443551</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D19" t="n">
-        <v>620.7813717458778</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E19" t="n">
-        <v>451.023367996615</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>451.023367996615</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>285.4320930224427</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.271321159099</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W19" t="n">
-        <v>1451.289408615821</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.897653949234</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.4779832633421</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,19 +5762,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>845.9697221592259</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C22" t="n">
-        <v>673.4080106424508</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D22" t="n">
-        <v>507.5300178439735</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>507.5300178439735</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>330.8229638057297</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5914,46 +5914,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2703.190844391635</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176948</v>
+        <v>2543.949475689632</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2298.070029268087</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008509</v>
+        <v>2019.637028521192</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878939</v>
+        <v>1732.681520391623</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465231</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="X22" t="n">
-        <v>1265.208011564105</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y22" t="n">
-        <v>1037.788340878213</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>845.683004334921</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>673.1212928181459</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.501623053908</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>863.1668995435762</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>697.2889067450989</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
         <v>584.4613435928212</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779339</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6780,25 +6780,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>871.6588228237728</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>699.0971113069977</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>533.2191185085204</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2619.583226606956</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2373.703780185412</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2095.270779438517</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1808.315271308948</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1536.288866895239</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1290.897112228652</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1063.47744154276</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,58 +6923,58 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7017,37 +7017,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7056,10 +7056,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405614</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420841</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928213</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545775</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804052</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2026.844126920462</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>1754.817722506753</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1509.425967840166</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1282.006297154274</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7242,49 +7242,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>147.8711371056734</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>828.6046571760508</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>828.6046571760508</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>828.6046571760508</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>828.6046571760508</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>828.6046571760508</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7293,10 +7293,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1011.560997133399</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C40" t="n">
-        <v>838.9992856166236</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D40" t="n">
-        <v>673.121292818146</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.121292818146</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799022</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057299</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961044</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755402</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008507</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>1948.217445618574</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1676.191041204865</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1430.799286538278</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>1203.379615852386</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640437</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873075</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834417</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3212.183885122485</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4192.363551692791</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5020.673426526188</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526188</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526188</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526188</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399226</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799757</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733583</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144617</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723928</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050121</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319658</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481274</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143113</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909814</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571936</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571936</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571936</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571936</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1464.837076475495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1464.837076475495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1039.56945483278</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>867.0077433160046</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>701.1297505175273</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>531.3717467682646</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>354.6646927300209</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663492</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343103</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724975</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1453.119528724975</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.388073551767</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168569</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351993</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526437</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847322</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939399</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>115.5646047172038</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693464</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693464</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.99017326377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097166</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.79883405576</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239597</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112636</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429653</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774513</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353824</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653477</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580464</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412713</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552876</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>96.7359766811152</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.7359766811152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.69591774924</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719582</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119685</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.84397037279</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1749.449776610605</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829512</v>
+        <v>1477.423372196896</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1232.031617530309</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477034</v>
+        <v>1004.611946844417</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986979</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657084</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10899,10 +10899,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>19.74406431761227</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>774.8540110383897</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>183.4781570095936</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>185.1957776566214</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>35.15749310933393</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.36113619101519</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>185.1957776566216</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.795820744404</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>177.9825081356772</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>41.29624514453974</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>223.1369608195778</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.631333357554603</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.07653710780719</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>54.79268646174552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>56.36113619101523</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>59.30510368402706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.446659489828857</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>122.4480280049976</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>219.0118993322403</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.388026562678704</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>138.503152566526</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.631333357557269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>268.0111327346194</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.028263932668153</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>592476.0290551269</v>
+        <v>607272.0718822815</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>592476.0290551269</v>
+        <v>609936.1319358612</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608424.9095573252</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608424.9095573252</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>617010.376755655</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987566</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987563</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>634101.1359987565</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>634101.1359987564</v>
+        <v>634101.1359987565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>625515.6688004269</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608424.9095573255</v>
+        <v>634101.1359987564</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294654</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294653</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="G2" t="n">
-        <v>371676.5655695098</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
@@ -26338,7 +26338,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26350,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>376800.008959536</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294654</v>
+        <v>381971.7484995804</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996337</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.21116848529</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26442,22 +26442,22 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="O4" t="n">
-        <v>93593.8297377933</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="P4" t="n">
-        <v>91036.5962575257</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319805</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25002.40131360403</v>
+        <v>-25002.40131360411</v>
       </c>
       <c r="C6" t="n">
-        <v>117188.8993461058</v>
+        <v>70444.19242582096</v>
       </c>
       <c r="D6" t="n">
-        <v>117188.8993461058</v>
+        <v>129077.1515423624</v>
       </c>
       <c r="E6" t="n">
-        <v>-32406.13452774513</v>
+        <v>26996.73168460258</v>
       </c>
       <c r="F6" t="n">
-        <v>201948.8874942921</v>
+        <v>209351.8409056525</v>
       </c>
       <c r="G6" t="n">
-        <v>198102.798557932</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="H6" t="n">
-        <v>196972.3102650716</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="I6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="J6" t="n">
-        <v>98360.59990004476</v>
+        <v>98337.37556066219</v>
       </c>
       <c r="K6" t="n">
-        <v>209375.0652450351</v>
+        <v>156305.9862668799</v>
       </c>
       <c r="L6" t="n">
-        <v>209375.065245035</v>
+        <v>199959.5391790298</v>
       </c>
       <c r="M6" t="n">
-        <v>13773.88596196735</v>
+        <v>57151.66996766463</v>
       </c>
       <c r="N6" t="n">
-        <v>209375.065245035</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="O6" t="n">
-        <v>206891.9431385447</v>
+        <v>209351.8409056524</v>
       </c>
       <c r="P6" t="n">
-        <v>201948.8874942922</v>
+        <v>209351.8409056524</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631547</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760677</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>329.7613816636198</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>342.65013499318</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,22 +27537,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>70.00837516796292</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>205.108835000117</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>147.7602269278014</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>146.06884503803</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>200.5055756522059</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>198.8106268099863</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.58595617610933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>174.0101156442034</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-8.503700092245722e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34863,10 +34863,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N4" t="n">
-        <v>312.7888501519116</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,22 +35094,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986979</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807095</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>804.1687139657084</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080447</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36531,7 +36531,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37543,16 +37543,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352469</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>19.74406431761227</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.4542274390806</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>774.8540110383897</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,13 +37871,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>183.4781570095936</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37941,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807414</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637955999</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
